--- a/data/trans_dic/P25A$voluntad-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P25A$voluntad-Clase-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5480414041545795</v>
+        <v>0.5432635967079115</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5816207019226658</v>
+        <v>0.5833583788530246</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5332672995382279</v>
+        <v>0.5358382692245026</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5176602249974938</v>
+        <v>0.5182700824721673</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6532119681684178</v>
+        <v>0.6480240501660957</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.553119066872746</v>
+        <v>0.5501801621543929</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5745736293431997</v>
+        <v>0.5687847830775101</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6288136675976982</v>
+        <v>0.6343543535822191</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.570236312850076</v>
+        <v>0.5745189501247944</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7429035318754109</v>
+        <v>0.7423897722358519</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7676714645456778</v>
+        <v>0.7681627948280216</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7537879917432826</v>
+        <v>0.7556866335901928</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8136472397450568</v>
+        <v>0.8157723070581914</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8848636304633364</v>
+        <v>0.8867233898500317</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7767859835407532</v>
+        <v>0.7865393959747657</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7361934939643405</v>
+        <v>0.7386124633099543</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7885300149655675</v>
+        <v>0.786765435196657</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.728138827214828</v>
+        <v>0.7320079829186591</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5913317169819888</v>
+        <v>0.5873590805513487</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6197122611009314</v>
+        <v>0.6348670824117736</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5229619280311492</v>
+        <v>0.533554107479566</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4623625616267047</v>
+        <v>0.4568531435236106</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5981812254878189</v>
+        <v>0.6041892275627302</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5349502534764922</v>
+        <v>0.5192485047778312</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5860108533881411</v>
+        <v>0.5738056921162844</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6670215478379804</v>
+        <v>0.6605232345700854</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5657376039208818</v>
+        <v>0.5653561580811705</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8001024529976927</v>
+        <v>0.7874139847541302</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8281437497077361</v>
+        <v>0.8272290736041997</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7511952159465827</v>
+        <v>0.7554975306353651</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7662118071997909</v>
+        <v>0.7537520263874892</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8604332439685775</v>
+        <v>0.8547502633759584</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7672823385986977</v>
+        <v>0.7704587113781882</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7577176545709926</v>
+        <v>0.7502132583203321</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8203718014599582</v>
+        <v>0.8127745847788581</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7247777707270008</v>
+        <v>0.7319244580540639</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4447708642477325</v>
+        <v>0.4411900509533655</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6224059156673981</v>
+        <v>0.6196448732569205</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5074405969832813</v>
+        <v>0.5198795388608487</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3181726855540442</v>
+        <v>0.3264129538434753</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.672301644762086</v>
+        <v>0.6953237990595775</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5101073649037262</v>
+        <v>0.4940791381717219</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4573501704408684</v>
+        <v>0.4556132217350623</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.654920291758652</v>
+        <v>0.6617927255344087</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5449709679921336</v>
+        <v>0.5499728956867719</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6376799201588464</v>
+        <v>0.6392947213820998</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7707495949206272</v>
+        <v>0.7711603527725991</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7095037917723761</v>
+        <v>0.7129244986339328</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7162473579187555</v>
+        <v>0.7458794912301108</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9425291475021662</v>
+        <v>0.9433412688903557</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.933949147923811</v>
+        <v>1</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6235832176325599</v>
+        <v>0.6252732282174258</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7843173217841399</v>
+        <v>0.7951275843164677</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7298149418656127</v>
+        <v>0.7246928137560835</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4720356854345188</v>
+        <v>0.4672016467801302</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6150476205919332</v>
+        <v>0.6088221349418376</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5035500098648256</v>
+        <v>0.4958805199079283</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6109580951409924</v>
+        <v>0.6055374616276823</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6683757427582799</v>
+        <v>0.6638485529369159</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6930234859323915</v>
+        <v>0.7042043246909716</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5139792671165183</v>
+        <v>0.5143318833067657</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6408881035031203</v>
+        <v>0.645871403654496</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5683967109654439</v>
+        <v>0.5711868826499175</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5883048748484512</v>
+        <v>0.584129800363701</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7207340953760368</v>
+        <v>0.7219681873952215</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6348378766871537</v>
+        <v>0.6279848899595655</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8367280136376153</v>
+        <v>0.8336933642231161</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8323280387974737</v>
+        <v>0.8380377799717422</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8657664592877207</v>
+        <v>0.8665981411104131</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6220527299425723</v>
+        <v>0.6209843215226148</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.731249563095532</v>
+        <v>0.7354000748089724</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6791451670184044</v>
+        <v>0.686425617195297</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3981703638395109</v>
+        <v>0.4106288066247437</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5065220485552516</v>
+        <v>0.4926386458281364</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4991750985723494</v>
+        <v>0.4950840011424308</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4586530121729724</v>
+        <v>0.4537156727988833</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.71634187356136</v>
+        <v>0.7245535956782638</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5225677068707487</v>
+        <v>0.5190224093547972</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4710819314934935</v>
+        <v>0.4591426717513811</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5978728231280974</v>
+        <v>0.6030939986825693</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5349582229480683</v>
+        <v>0.5344032402355511</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6474126090385198</v>
+        <v>0.6719139181698142</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6830256067221837</v>
+        <v>0.6750611737603704</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6825341135429907</v>
+        <v>0.6919224462201963</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7850550359054494</v>
+        <v>0.7766802127576887</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9125296596098262</v>
+        <v>0.9132585467764279</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7425805003636412</v>
+        <v>0.7515384704172391</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.665441147749253</v>
+        <v>0.6680080134213758</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7377391533474912</v>
+        <v>0.7458025298285634</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6817375033097985</v>
+        <v>0.6797730502999022</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2807296290636538</v>
+        <v>0.3083905050854637</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3276777059627585</v>
+        <v>0.3177806277457513</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1759928242134424</v>
+        <v>0.172904400945489</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5356230403019342</v>
+        <v>0.527757959762723</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5674366795714244</v>
+        <v>0.5767328199435489</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4940541869462756</v>
+        <v>0.4828150234442893</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.5759407073322808</v>
+        <v>0.5565576457114799</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.5904738308911376</v>
+        <v>0.5949763050181283</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.4934788021680638</v>
+        <v>0.5127980159765989</v>
       </c>
     </row>
     <row r="21">
@@ -1264,22 +1264,22 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8058298137417959</v>
+        <v>0.8070680189960172</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8182406544351889</v>
+        <v>0.8153957200302249</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.8072734015577894</v>
+        <v>0.8023757909305889</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8175060651636267</v>
+        <v>0.8145630533158151</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.8221994130835081</v>
+        <v>0.8125625104150501</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.778346756552431</v>
+        <v>0.79794184064416</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5371030563702304</v>
+        <v>0.5340777816330705</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6412244379207042</v>
+        <v>0.6369732152162566</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5613329628371764</v>
+        <v>0.5621053924015181</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5976925364590826</v>
+        <v>0.5994101406951278</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7255763366341724</v>
+        <v>0.7283304727176586</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6457051564187604</v>
+        <v>0.6485779310273502</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.5681629148512962</v>
+        <v>0.568544184890906</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.6776266915980754</v>
+        <v>0.6765783561591396</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.603413168456738</v>
+        <v>0.6014770191354532</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.615134110746247</v>
+        <v>0.6113641162795972</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7079513288831764</v>
+        <v>0.7085626661974324</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6445516568805778</v>
+        <v>0.6410244520973802</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7186186299118598</v>
+        <v>0.7199217076099812</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8143161371639872</v>
+        <v>0.8183978992724641</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7459526341260181</v>
+        <v>0.7468940159557447</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.633907047595098</v>
+        <v>0.6344934935486628</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.7335384877882025</v>
+        <v>0.7305882221996872</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6639843516895996</v>
+        <v>0.6665170444721702</v>
       </c>
     </row>
     <row r="25">
@@ -1619,31 +1619,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>52546</v>
+        <v>52088</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>65183</v>
+        <v>65378</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>49782</v>
+        <v>50022</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>19706</v>
+        <v>19729</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>33769</v>
+        <v>33501</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>33959</v>
+        <v>33779</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>76961</v>
+        <v>76186</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>102980</v>
+        <v>103887</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>88243</v>
+        <v>88906</v>
       </c>
     </row>
     <row r="7">
@@ -1654,31 +1654,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>71229</v>
+        <v>71180</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>86034</v>
+        <v>86089</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>70368</v>
+        <v>70545</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>30973</v>
+        <v>31054</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>45745</v>
+        <v>45841</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>47692</v>
+        <v>48290</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>98609</v>
+        <v>98933</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>129136</v>
+        <v>128847</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>112679</v>
+        <v>113278</v>
       </c>
     </row>
     <row r="8">
@@ -1763,31 +1763,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>47211</v>
+        <v>46894</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>55726</v>
+        <v>57089</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>38100</v>
+        <v>38872</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>18709</v>
+        <v>18486</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>32337</v>
+        <v>32662</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>35805</v>
+        <v>34754</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>70498</v>
+        <v>69029</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>96038</v>
+        <v>95102</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>79083</v>
+        <v>79029</v>
       </c>
     </row>
     <row r="11">
@@ -1798,31 +1798,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>63879</v>
+        <v>62866</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>74468</v>
+        <v>74386</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>54728</v>
+        <v>55042</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>31003</v>
+        <v>30499</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>46514</v>
+        <v>46207</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>51356</v>
+        <v>51568</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>91154</v>
+        <v>90251</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>118117</v>
+        <v>117023</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>101315</v>
+        <v>102314</v>
       </c>
     </row>
     <row r="12">
@@ -1907,31 +1907,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>47459</v>
+        <v>47077</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>100823</v>
+        <v>100376</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>49873</v>
+        <v>51095</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7756</v>
+        <v>7957</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>23645</v>
+        <v>24455</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6728</v>
+        <v>6516</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>59949</v>
+        <v>59722</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>129123</v>
+        <v>130478</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>60750</v>
+        <v>61307</v>
       </c>
     </row>
     <row r="15">
@@ -1942,31 +1942,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>68043</v>
+        <v>68215</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>124853</v>
+        <v>124919</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>69732</v>
+        <v>70068</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>17459</v>
+        <v>18182</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>33149</v>
+        <v>33177</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>12318</v>
+        <v>13189</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>81739</v>
+        <v>81961</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>154635</v>
+        <v>156767</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>81355</v>
+        <v>80784</v>
       </c>
     </row>
     <row r="16">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>128450</v>
+        <v>127135</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>196161</v>
+        <v>194176</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>114679</v>
+        <v>112933</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>38700</v>
+        <v>38357</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>75626</v>
+        <v>75114</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>60067</v>
+        <v>61036</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>172421</v>
+        <v>172539</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>276919</v>
+        <v>279072</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>178713</v>
+        <v>179590</v>
       </c>
     </row>
     <row r="19">
@@ -2086,31 +2086,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>160090</v>
+        <v>158953</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>229869</v>
+        <v>230262</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>144579</v>
+        <v>143019</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>53001</v>
+        <v>52809</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>94177</v>
+        <v>94823</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>75039</v>
+        <v>75112</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>208676</v>
+        <v>208317</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>315963</v>
+        <v>317756</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>213534</v>
+        <v>215823</v>
       </c>
     </row>
     <row r="20">
@@ -2195,31 +2195,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>25318</v>
+        <v>26111</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>64398</v>
+        <v>62633</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>53758</v>
+        <v>53317</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>16281</v>
+        <v>16106</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>49749</v>
+        <v>50319</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>36683</v>
+        <v>36434</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>46677</v>
+        <v>45494</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>117533</v>
+        <v>118560</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>95163</v>
+        <v>95064</v>
       </c>
     </row>
     <row r="23">
@@ -2230,31 +2230,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>41167</v>
+        <v>42725</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>86839</v>
+        <v>85826</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>73504</v>
+        <v>74515</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>27867</v>
+        <v>27570</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>63373</v>
+        <v>63424</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>52127</v>
+        <v>52756</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>65935</v>
+        <v>66189</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>145029</v>
+        <v>146614</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>121274</v>
+        <v>120924</v>
       </c>
     </row>
     <row r="24">
@@ -2339,31 +2339,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1552</v>
+        <v>1704</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1971</v>
+        <v>1912</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>980</v>
+        <v>963</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>26239</v>
+        <v>25854</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>34579</v>
+        <v>35146</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>17853</v>
+        <v>17447</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>31397</v>
+        <v>30341</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>39535</v>
+        <v>39836</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>20581</v>
+        <v>21387</v>
       </c>
     </row>
     <row r="27">
@@ -2383,22 +2383,22 @@
         <v>5570</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>39476</v>
+        <v>39537</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>49863</v>
+        <v>49689</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>29171</v>
+        <v>28994</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>44566</v>
+        <v>44406</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>55050</v>
+        <v>54404</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>32462</v>
+        <v>33279</v>
       </c>
     </row>
     <row r="28">
@@ -2483,31 +2483,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>334966</v>
+        <v>333079</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>523286</v>
+        <v>519817</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>339884</v>
+        <v>340352</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>149862</v>
+        <v>150293</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>278956</v>
+        <v>280015</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>216004</v>
+        <v>216965</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>496795</v>
+        <v>497128</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>813514</v>
+        <v>812255</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>567220</v>
+        <v>565400</v>
       </c>
     </row>
     <row r="31">
@@ -2518,31 +2518,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>383630</v>
+        <v>381279</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>577740</v>
+        <v>578239</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>390273</v>
+        <v>388137</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>180183</v>
+        <v>180510</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>313073</v>
+        <v>314642</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>249539</v>
+        <v>249854</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>554281</v>
+        <v>554793</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>880638</v>
+        <v>877096</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>624158</v>
+        <v>626539</v>
       </c>
     </row>
     <row r="32">
